--- a/Rawdata/lämmelprediktion_medelvärde_topp_uppgång.xlsx
+++ b/Rawdata/lämmelprediktion_medelvärde_topp_uppgång.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,13 +1348,39 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>FSZZ106</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>0.3112873072124995</v>
+      </c>
+      <c r="C79">
+        <v>0.6327834472285486</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>FSZZ108</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>0.170393098269208</v>
+      </c>
+      <c r="C80">
+        <v>0.5191002556620498</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>FSZZ130</t>
         </is>
       </c>
-      <c r="B79">
+      <c r="B81">
         <v>0.2347768864281388</v>
       </c>
-      <c r="C79">
+      <c r="C81">
         <v>0.7054403004922152</v>
       </c>
     </row>
